--- a/testdata/excel_test_resource.xlsx
+++ b/testdata/excel_test_resource.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28000" windowHeight="13160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>名称</t>
   </si>
@@ -28,7 +44,7 @@
     <t>尺码</t>
   </si>
   <si>
-    <t>玩具体积</t>
+    <t>建筑额外信息</t>
   </si>
   <si>
     <t>A</t>
@@ -60,42 +76,218 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <r>
+      <t>{"construct_org":"X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建筑公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","cost":1000000,"worker_count":100}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,11 +297,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -132,57 +510,394 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office-Design">
       <a:dk1>
@@ -308,7 +1023,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -317,7 +1032,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -326,7 +1041,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -400,13 +1115,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -426,19 +1140,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial" panose="020B0704020202020204"/>
+            <a:ea typeface="Arial" panose="020B0704020202020204"/>
+            <a:cs typeface="Arial" panose="020B0704020202020204"/>
+            <a:sym typeface="Arial" panose="020B0704020202020204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -455,7 +1169,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -480,7 +1194,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +1219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -530,7 +1244,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,7 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -580,7 +1294,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,7 +1319,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +1344,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -655,7 +1369,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,9 +1382,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -685,13 +1405,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -711,7 +1430,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +1455,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +1480,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +1505,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +1530,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +1555,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +1580,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +1605,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +1630,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +1655,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,9 +1668,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -962,8 +1687,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -983,19 +1706,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial" panose="020B0704020202020204"/>
+            <a:ea typeface="Arial" panose="020B0704020202020204"/>
+            <a:cs typeface="Arial" panose="020B0704020202020204"/>
+            <a:sym typeface="Arial" panose="020B0704020202020204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1012,7 +1735,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1760,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1785,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1810,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1835,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1860,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1885,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1910,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1935,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,9 +1948,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1236,89 +1965,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="17.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="17.6" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="6" width="9.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" ht="18" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" ht="18" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" ht="18" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5">
@@ -1326,8 +2057,8 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" ht="18" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5">
@@ -1336,11 +2067,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <v>100</v>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row r="7" ht="18" customHeight="1" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1348,7 +2079,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row r="8" ht="18" customHeight="1" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1356,7 +2087,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="18" customHeight="1">
+    <row r="9" ht="18" customHeight="1" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1364,7 +2095,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row r="10" ht="18" customHeight="1" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1374,7 +2105,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Sheet1</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
